--- a/co-honour/Todo.xlsx
+++ b/co-honour/Todo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F472F1F-BC92-4C1B-B8AF-1BBF8DCDA4CE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA47F244-154A-41DC-8538-FA60CE2371D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>和杨总探讨相对日陆我们的优势在哪里</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>烧水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>中化帮我们查年检费用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -54,10 +50,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>有机会问问杨总说的自己把公司卖了的经历</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>唐山SEAU1224077昨天没装好？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -67,6 +59,38 @@
   </si>
   <si>
     <t>SIMU6109243 25号申请进罐的，还没进场么？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>束姐说1228早上才装好，还没看到确认照片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款申请已交，电放状态还是否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已去问</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已领1931</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销款1421元给杨总</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -75,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="mm/dd\ [$-804]aaa\ hh:mm;@"/>
+    <numFmt numFmtId="176" formatCode="mm/dd\ [$-804]aaa\ hh:mm;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -152,10 +176,10 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -192,7 +216,7 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="177" formatCode="mm/dd\ [$-804]aaa\ hh:mm;@"/>
+      <numFmt numFmtId="176" formatCode="mm/dd\ [$-804]aaa\ hh:mm;@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -225,15 +249,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF72AF89-F690-48B5-859B-EDBA2F43E901}" name="表1" displayName="表1" ref="A1:C10" totalsRowShown="0">
-  <autoFilter ref="A1:C10" xr:uid="{EBED2217-D7F7-4FDB-A25E-F1419223B8EB}"/>
-  <sortState ref="A2:C9">
-    <sortCondition ref="A7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF72AF89-F690-48B5-859B-EDBA2F43E901}" name="表1" displayName="表1" ref="A1:D9" totalsRowShown="0">
+  <autoFilter ref="A1:D9" xr:uid="{EBED2217-D7F7-4FDB-A25E-F1419223B8EB}"/>
+  <sortState ref="A2:C7">
+    <sortCondition ref="A6"/>
   </sortState>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{06A7E848-2B38-48F5-9434-97E66808A1AE}" name="Date" dataDxfId="1" dataCellStyle="常规 4"/>
     <tableColumn id="2" xr3:uid="{E38AC997-8ED3-4D82-A6A0-74E24F412EEB}" name="Todo" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{C3AC65EC-40F4-4D78-ADAC-6EFDC0F01923}" name="Result"/>
+    <tableColumn id="4" xr3:uid="{34E745DC-4BB2-468F-B2C7-3C3BA62AD6CF}" name="Status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -502,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -515,7 +540,7 @@
     <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -525,86 +550,101 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43462</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43462.333333333336</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>43462.333333333336</v>
+        <v>43462.368055555555</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>43462.375</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>43462.434027777781</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>43462.583333333336</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>43462.368055555555</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>43462.375</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>43462.434027777781</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>43462.5</v>
+        <v>43462</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>43462.583333333336</v>
+        <v>43462.4375</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>43462</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3"/>
+      <c r="D9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
